--- a/Excle/คะแนนความสะอาด/Term1/Term1.xlsx
+++ b/Excle/คะแนนความสะอาด/Term1/Term1.xlsx
@@ -9,14 +9,14 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Tahoma"/>
       <family val="2"/>
@@ -24,14 +24,8 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <sz val="8"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -41,6 +35,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.1499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -72,7 +72,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -82,11 +82,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -430,16 +435,17 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG17"/>
+  <dimension ref="A1:AG15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
   <cols>
     <col width="9" customWidth="1" style="1" min="1" max="1"/>
-    <col width="9" customWidth="1" min="3" max="3"/>
+    <col width="10.375" customWidth="1" min="3" max="3"/>
+    <col width="10.875" customWidth="1" min="19" max="19"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -453,7 +459,7 @@
           <t>class</t>
         </is>
       </c>
-      <c r="C1" s="4" t="n">
+      <c r="C1" s="7" t="n">
         <v>44105</v>
       </c>
       <c r="D1" s="4" t="n">
@@ -547,50 +553,54 @@
         <v>44135</v>
       </c>
     </row>
-    <row r="2" customFormat="1" s="7">
-      <c r="A2" s="5" t="n">
-        <v>245</v>
-      </c>
-      <c r="B2" s="6" t="inlineStr">
+    <row r="2" customFormat="1" s="6">
+      <c r="A2" s="8" t="inlineStr">
+        <is>
+          <t>0101</t>
+        </is>
+      </c>
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>M.1/1</t>
         </is>
       </c>
-      <c r="C2" s="6" t="n"/>
-      <c r="D2" s="6" t="n"/>
-      <c r="E2" s="6" t="n"/>
-      <c r="F2" s="6" t="n"/>
-      <c r="G2" s="6" t="n"/>
-      <c r="H2" s="6" t="n"/>
-      <c r="I2" s="6" t="n"/>
-      <c r="J2" s="6" t="n"/>
-      <c r="K2" s="6" t="n"/>
-      <c r="L2" s="6" t="n"/>
-      <c r="M2" s="6" t="n"/>
-      <c r="N2" s="6" t="n"/>
-      <c r="O2" s="6" t="n"/>
-      <c r="P2" s="6" t="n"/>
-      <c r="Q2" s="6" t="n"/>
-      <c r="R2" s="6" t="n"/>
-      <c r="S2" s="6" t="n"/>
-      <c r="T2" s="6" t="n"/>
-      <c r="U2" s="6" t="n"/>
-      <c r="V2" s="6" t="n"/>
-      <c r="W2" s="6" t="n"/>
-      <c r="X2" s="6" t="n"/>
-      <c r="Y2" s="6" t="n"/>
-      <c r="Z2" s="6" t="n"/>
-      <c r="AA2" s="6" t="n"/>
-      <c r="AB2" s="6" t="n"/>
-      <c r="AC2" s="6" t="n"/>
-      <c r="AD2" s="6" t="n"/>
-      <c r="AE2" s="6" t="n"/>
-      <c r="AF2" s="6" t="n"/>
-      <c r="AG2" s="6" t="n"/>
+      <c r="C2" s="5" t="n"/>
+      <c r="D2" s="5" t="n"/>
+      <c r="E2" s="5" t="n"/>
+      <c r="F2" s="5" t="n"/>
+      <c r="G2" s="5" t="n"/>
+      <c r="H2" s="5" t="n"/>
+      <c r="I2" s="5" t="n"/>
+      <c r="J2" s="5" t="n"/>
+      <c r="K2" s="5" t="n"/>
+      <c r="L2" s="5" t="n"/>
+      <c r="M2" s="5" t="n"/>
+      <c r="N2" s="5" t="n"/>
+      <c r="O2" s="5" t="n"/>
+      <c r="P2" s="5" t="n"/>
+      <c r="Q2" s="5" t="n"/>
+      <c r="R2" s="5" t="n"/>
+      <c r="S2" s="5" t="n"/>
+      <c r="T2" s="5" t="n"/>
+      <c r="U2" s="5" t="n"/>
+      <c r="V2" s="5" t="n"/>
+      <c r="W2" s="5" t="n"/>
+      <c r="X2" s="5" t="n"/>
+      <c r="Y2" s="5" t="n"/>
+      <c r="Z2" s="5" t="n"/>
+      <c r="AA2" s="5" t="n"/>
+      <c r="AB2" s="5" t="n"/>
+      <c r="AC2" s="5" t="n"/>
+      <c r="AD2" s="5" t="n"/>
+      <c r="AE2" s="5" t="n"/>
+      <c r="AF2" s="5" t="n"/>
+      <c r="AG2" s="5" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>246</v>
+      <c r="A3" s="9" t="inlineStr">
+        <is>
+          <t>0102</t>
+        </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
@@ -629,50 +639,54 @@
       <c r="AF3" s="3" t="n"/>
       <c r="AG3" s="3" t="n"/>
     </row>
-    <row r="4" customFormat="1" s="7">
-      <c r="A4" s="5" t="n">
-        <v>252</v>
-      </c>
-      <c r="B4" s="6" t="inlineStr">
+    <row r="4" customFormat="1" s="6">
+      <c r="A4" s="8" t="inlineStr">
+        <is>
+          <t>0103</t>
+        </is>
+      </c>
+      <c r="B4" s="5" t="inlineStr">
         <is>
           <t>M.1/3</t>
         </is>
       </c>
-      <c r="C4" s="6" t="n"/>
-      <c r="D4" s="6" t="n"/>
-      <c r="E4" s="6" t="n"/>
-      <c r="F4" s="6" t="n"/>
-      <c r="G4" s="6" t="n"/>
-      <c r="H4" s="6" t="n"/>
-      <c r="I4" s="6" t="n"/>
-      <c r="J4" s="6" t="n"/>
-      <c r="K4" s="6" t="n"/>
-      <c r="L4" s="6" t="n"/>
-      <c r="M4" s="6" t="n"/>
-      <c r="N4" s="6" t="n"/>
-      <c r="O4" s="6" t="n"/>
-      <c r="P4" s="6" t="n"/>
-      <c r="Q4" s="6" t="n"/>
-      <c r="R4" s="6" t="n"/>
-      <c r="S4" s="6" t="n"/>
-      <c r="T4" s="6" t="n"/>
-      <c r="U4" s="6" t="n"/>
-      <c r="V4" s="6" t="n"/>
-      <c r="W4" s="6" t="n"/>
-      <c r="X4" s="6" t="n"/>
-      <c r="Y4" s="6" t="n"/>
-      <c r="Z4" s="6" t="n"/>
-      <c r="AA4" s="6" t="n"/>
-      <c r="AB4" s="6" t="n"/>
-      <c r="AC4" s="6" t="n"/>
-      <c r="AD4" s="6" t="n"/>
-      <c r="AE4" s="6" t="n"/>
-      <c r="AF4" s="6" t="n"/>
-      <c r="AG4" s="6" t="n"/>
+      <c r="C4" s="5" t="n"/>
+      <c r="D4" s="5" t="n"/>
+      <c r="E4" s="5" t="n"/>
+      <c r="F4" s="5" t="n"/>
+      <c r="G4" s="5" t="n"/>
+      <c r="H4" s="5" t="n"/>
+      <c r="I4" s="5" t="n"/>
+      <c r="J4" s="5" t="n"/>
+      <c r="K4" s="5" t="n"/>
+      <c r="L4" s="5" t="n"/>
+      <c r="M4" s="5" t="n"/>
+      <c r="N4" s="5" t="n"/>
+      <c r="O4" s="5" t="n"/>
+      <c r="P4" s="5" t="n"/>
+      <c r="Q4" s="5" t="n"/>
+      <c r="R4" s="5" t="n"/>
+      <c r="S4" s="5" t="n"/>
+      <c r="T4" s="5" t="n"/>
+      <c r="U4" s="5" t="n"/>
+      <c r="V4" s="5" t="n"/>
+      <c r="W4" s="5" t="n"/>
+      <c r="X4" s="5" t="n"/>
+      <c r="Y4" s="5" t="n"/>
+      <c r="Z4" s="5" t="n"/>
+      <c r="AA4" s="5" t="n"/>
+      <c r="AB4" s="5" t="n"/>
+      <c r="AC4" s="5" t="n"/>
+      <c r="AD4" s="5" t="n"/>
+      <c r="AE4" s="5" t="n"/>
+      <c r="AF4" s="5" t="n"/>
+      <c r="AG4" s="5" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>253</v>
+      <c r="A5" s="9" t="inlineStr">
+        <is>
+          <t>0104</t>
+        </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
@@ -711,50 +725,54 @@
       <c r="AF5" s="3" t="n"/>
       <c r="AG5" s="3" t="n"/>
     </row>
-    <row r="6" customFormat="1" s="7">
-      <c r="A6" s="5" t="n">
-        <v>553</v>
-      </c>
-      <c r="B6" s="6" t="inlineStr">
+    <row r="6" customFormat="1" s="6">
+      <c r="A6" s="8" t="inlineStr">
+        <is>
+          <t>0105</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
         <is>
           <t>M.1/5</t>
         </is>
       </c>
-      <c r="C6" s="6" t="n"/>
-      <c r="D6" s="6" t="n"/>
-      <c r="E6" s="6" t="n"/>
-      <c r="F6" s="6" t="n"/>
-      <c r="G6" s="6" t="n"/>
-      <c r="H6" s="6" t="n"/>
-      <c r="I6" s="6" t="n"/>
-      <c r="J6" s="6" t="n"/>
-      <c r="K6" s="6" t="n"/>
-      <c r="L6" s="6" t="n"/>
-      <c r="M6" s="6" t="n"/>
-      <c r="N6" s="6" t="n"/>
-      <c r="O6" s="6" t="n"/>
-      <c r="P6" s="6" t="n"/>
-      <c r="Q6" s="6" t="n"/>
-      <c r="R6" s="6" t="n"/>
-      <c r="S6" s="6" t="n"/>
-      <c r="T6" s="6" t="n"/>
-      <c r="U6" s="6" t="n"/>
-      <c r="V6" s="6" t="n"/>
-      <c r="W6" s="6" t="n"/>
-      <c r="X6" s="6" t="n"/>
-      <c r="Y6" s="6" t="n"/>
-      <c r="Z6" s="6" t="n"/>
-      <c r="AA6" s="6" t="n"/>
-      <c r="AB6" s="6" t="n"/>
-      <c r="AC6" s="6" t="n"/>
-      <c r="AD6" s="6" t="n"/>
-      <c r="AE6" s="6" t="n"/>
-      <c r="AF6" s="6" t="n"/>
-      <c r="AG6" s="6" t="n"/>
+      <c r="C6" s="5" t="n"/>
+      <c r="D6" s="5" t="n"/>
+      <c r="E6" s="5" t="n"/>
+      <c r="F6" s="5" t="n"/>
+      <c r="G6" s="5" t="n"/>
+      <c r="H6" s="5" t="n"/>
+      <c r="I6" s="5" t="n"/>
+      <c r="J6" s="5" t="n"/>
+      <c r="K6" s="5" t="n"/>
+      <c r="L6" s="5" t="n"/>
+      <c r="M6" s="5" t="n"/>
+      <c r="N6" s="5" t="n"/>
+      <c r="O6" s="5" t="n"/>
+      <c r="P6" s="5" t="n"/>
+      <c r="Q6" s="5" t="n"/>
+      <c r="R6" s="5" t="n"/>
+      <c r="S6" s="5" t="n"/>
+      <c r="T6" s="5" t="n"/>
+      <c r="U6" s="5" t="n"/>
+      <c r="V6" s="5" t="n"/>
+      <c r="W6" s="5" t="n"/>
+      <c r="X6" s="5" t="n"/>
+      <c r="Y6" s="5" t="n"/>
+      <c r="Z6" s="5" t="n"/>
+      <c r="AA6" s="5" t="n"/>
+      <c r="AB6" s="5" t="n"/>
+      <c r="AC6" s="5" t="n"/>
+      <c r="AD6" s="5" t="n"/>
+      <c r="AE6" s="5" t="n"/>
+      <c r="AF6" s="5" t="n"/>
+      <c r="AG6" s="5" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>554</v>
+      <c r="A7" s="9" t="inlineStr">
+        <is>
+          <t>0106</t>
+        </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
@@ -793,50 +811,54 @@
       <c r="AF7" s="3" t="n"/>
       <c r="AG7" s="3" t="n"/>
     </row>
-    <row r="8" customFormat="1" s="7">
-      <c r="A8" s="5" t="n">
-        <v>555</v>
-      </c>
-      <c r="B8" s="6" t="inlineStr">
+    <row r="8" customFormat="1" s="6">
+      <c r="A8" s="8" t="inlineStr">
+        <is>
+          <t>0107</t>
+        </is>
+      </c>
+      <c r="B8" s="5" t="inlineStr">
         <is>
           <t>M.1/7</t>
         </is>
       </c>
-      <c r="C8" s="6" t="n"/>
-      <c r="D8" s="6" t="n"/>
-      <c r="E8" s="6" t="n"/>
-      <c r="F8" s="6" t="n"/>
-      <c r="G8" s="6" t="n"/>
-      <c r="H8" s="6" t="n"/>
-      <c r="I8" s="6" t="n"/>
-      <c r="J8" s="6" t="n"/>
-      <c r="K8" s="6" t="n"/>
-      <c r="L8" s="6" t="n"/>
-      <c r="M8" s="6" t="n"/>
-      <c r="N8" s="6" t="n"/>
-      <c r="O8" s="6" t="n"/>
-      <c r="P8" s="6" t="n"/>
-      <c r="Q8" s="6" t="n"/>
-      <c r="R8" s="6" t="n"/>
-      <c r="S8" s="6" t="n"/>
-      <c r="T8" s="6" t="n"/>
-      <c r="U8" s="6" t="n"/>
-      <c r="V8" s="6" t="n"/>
-      <c r="W8" s="6" t="n"/>
-      <c r="X8" s="6" t="n"/>
-      <c r="Y8" s="6" t="n"/>
-      <c r="Z8" s="6" t="n"/>
-      <c r="AA8" s="6" t="n"/>
-      <c r="AB8" s="6" t="n"/>
-      <c r="AC8" s="6" t="n"/>
-      <c r="AD8" s="6" t="n"/>
-      <c r="AE8" s="6" t="n"/>
-      <c r="AF8" s="6" t="n"/>
-      <c r="AG8" s="6" t="n"/>
+      <c r="C8" s="5" t="n"/>
+      <c r="D8" s="5" t="n"/>
+      <c r="E8" s="5" t="n"/>
+      <c r="F8" s="5" t="n"/>
+      <c r="G8" s="5" t="n"/>
+      <c r="H8" s="5" t="n"/>
+      <c r="I8" s="5" t="n"/>
+      <c r="J8" s="5" t="n"/>
+      <c r="K8" s="5" t="n"/>
+      <c r="L8" s="5" t="n"/>
+      <c r="M8" s="5" t="n"/>
+      <c r="N8" s="5" t="n"/>
+      <c r="O8" s="5" t="n"/>
+      <c r="P8" s="5" t="n"/>
+      <c r="Q8" s="5" t="n"/>
+      <c r="R8" s="5" t="n"/>
+      <c r="S8" s="5" t="n"/>
+      <c r="T8" s="5" t="n"/>
+      <c r="U8" s="5" t="n"/>
+      <c r="V8" s="5" t="n"/>
+      <c r="W8" s="5" t="n"/>
+      <c r="X8" s="5" t="n"/>
+      <c r="Y8" s="5" t="n"/>
+      <c r="Z8" s="5" t="n"/>
+      <c r="AA8" s="5" t="n"/>
+      <c r="AB8" s="5" t="n"/>
+      <c r="AC8" s="5" t="n"/>
+      <c r="AD8" s="5" t="n"/>
+      <c r="AE8" s="5" t="n"/>
+      <c r="AF8" s="5" t="n"/>
+      <c r="AG8" s="5" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>556</v>
+      <c r="A9" s="9" t="inlineStr">
+        <is>
+          <t>0108</t>
+        </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
@@ -875,50 +897,54 @@
       <c r="AF9" s="3" t="n"/>
       <c r="AG9" s="3" t="n"/>
     </row>
-    <row r="10" customFormat="1" s="7">
-      <c r="A10" s="5" t="n">
-        <v>558</v>
-      </c>
-      <c r="B10" s="6" t="inlineStr">
+    <row r="10" customFormat="1" s="6">
+      <c r="A10" s="8" t="inlineStr">
+        <is>
+          <t>0109</t>
+        </is>
+      </c>
+      <c r="B10" s="5" t="inlineStr">
         <is>
           <t>M.1/9</t>
         </is>
       </c>
-      <c r="C10" s="6" t="n"/>
-      <c r="D10" s="6" t="n"/>
-      <c r="E10" s="6" t="n"/>
-      <c r="F10" s="6" t="n"/>
-      <c r="G10" s="6" t="n"/>
-      <c r="H10" s="6" t="n"/>
-      <c r="I10" s="6" t="n"/>
-      <c r="J10" s="6" t="n"/>
-      <c r="K10" s="6" t="n"/>
-      <c r="L10" s="6" t="n"/>
-      <c r="M10" s="6" t="n"/>
-      <c r="N10" s="6" t="n"/>
-      <c r="O10" s="6" t="n"/>
-      <c r="P10" s="6" t="n"/>
-      <c r="Q10" s="6" t="n"/>
-      <c r="R10" s="6" t="n"/>
-      <c r="S10" s="6" t="n"/>
-      <c r="T10" s="6" t="n"/>
-      <c r="U10" s="6" t="n"/>
-      <c r="V10" s="6" t="n"/>
-      <c r="W10" s="6" t="n"/>
-      <c r="X10" s="6" t="n"/>
-      <c r="Y10" s="6" t="n"/>
-      <c r="Z10" s="6" t="n"/>
-      <c r="AA10" s="6" t="n"/>
-      <c r="AB10" s="6" t="n"/>
-      <c r="AC10" s="6" t="n"/>
-      <c r="AD10" s="6" t="n"/>
-      <c r="AE10" s="6" t="n"/>
-      <c r="AF10" s="6" t="n"/>
-      <c r="AG10" s="6" t="n"/>
+      <c r="C10" s="5" t="n"/>
+      <c r="D10" s="5" t="n"/>
+      <c r="E10" s="5" t="n"/>
+      <c r="F10" s="5" t="n"/>
+      <c r="G10" s="5" t="n"/>
+      <c r="H10" s="5" t="n"/>
+      <c r="I10" s="5" t="n"/>
+      <c r="J10" s="5" t="n"/>
+      <c r="K10" s="5" t="n"/>
+      <c r="L10" s="5" t="n"/>
+      <c r="M10" s="5" t="n"/>
+      <c r="N10" s="5" t="n"/>
+      <c r="O10" s="5" t="n"/>
+      <c r="P10" s="5" t="n"/>
+      <c r="Q10" s="5" t="n"/>
+      <c r="R10" s="5" t="n"/>
+      <c r="S10" s="5" t="n"/>
+      <c r="T10" s="5" t="n"/>
+      <c r="U10" s="5" t="n"/>
+      <c r="V10" s="5" t="n"/>
+      <c r="W10" s="5" t="n"/>
+      <c r="X10" s="5" t="n"/>
+      <c r="Y10" s="5" t="n"/>
+      <c r="Z10" s="5" t="n"/>
+      <c r="AA10" s="5" t="n"/>
+      <c r="AB10" s="5" t="n"/>
+      <c r="AC10" s="5" t="n"/>
+      <c r="AD10" s="5" t="n"/>
+      <c r="AE10" s="5" t="n"/>
+      <c r="AF10" s="5" t="n"/>
+      <c r="AG10" s="5" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>542</v>
+      <c r="A11" s="9" t="inlineStr">
+        <is>
+          <t>0110</t>
+        </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
@@ -936,7 +962,9 @@
       <c r="K11" s="3" t="n"/>
       <c r="L11" s="3" t="n"/>
       <c r="M11" s="3" t="n"/>
-      <c r="N11" s="3" t="n"/>
+      <c r="N11" s="10" t="n">
+        <v>100</v>
+      </c>
       <c r="O11" s="3" t="n"/>
       <c r="P11" s="3" t="n"/>
       <c r="Q11" s="3" t="n"/>
@@ -957,50 +985,54 @@
       <c r="AF11" s="3" t="n"/>
       <c r="AG11" s="3" t="n"/>
     </row>
-    <row r="12" customFormat="1" s="7">
-      <c r="A12" s="5" t="n">
-        <v>543</v>
-      </c>
-      <c r="B12" s="6" t="inlineStr">
+    <row r="12" customFormat="1" s="6">
+      <c r="A12" s="8" t="inlineStr">
+        <is>
+          <t>0111</t>
+        </is>
+      </c>
+      <c r="B12" s="5" t="inlineStr">
         <is>
           <t>M.1/11</t>
         </is>
       </c>
-      <c r="C12" s="6" t="n"/>
-      <c r="D12" s="6" t="n"/>
-      <c r="E12" s="6" t="n"/>
-      <c r="F12" s="6" t="n"/>
-      <c r="G12" s="6" t="n"/>
-      <c r="H12" s="6" t="n"/>
-      <c r="I12" s="6" t="n"/>
-      <c r="J12" s="6" t="n"/>
-      <c r="K12" s="6" t="n"/>
-      <c r="L12" s="6" t="n"/>
-      <c r="M12" s="6" t="n"/>
-      <c r="N12" s="6" t="n"/>
-      <c r="O12" s="6" t="n"/>
-      <c r="P12" s="6" t="n"/>
-      <c r="Q12" s="6" t="n"/>
-      <c r="R12" s="6" t="n"/>
-      <c r="S12" s="6" t="n"/>
-      <c r="T12" s="6" t="n"/>
-      <c r="U12" s="6" t="n"/>
-      <c r="V12" s="6" t="n"/>
-      <c r="W12" s="6" t="n"/>
-      <c r="X12" s="6" t="n"/>
-      <c r="Y12" s="6" t="n"/>
-      <c r="Z12" s="6" t="n"/>
-      <c r="AA12" s="6" t="n"/>
-      <c r="AB12" s="6" t="n"/>
-      <c r="AC12" s="6" t="n"/>
-      <c r="AD12" s="6" t="n"/>
-      <c r="AE12" s="6" t="n"/>
-      <c r="AF12" s="6" t="n"/>
-      <c r="AG12" s="6" t="n"/>
+      <c r="C12" s="5" t="n"/>
+      <c r="D12" s="5" t="n"/>
+      <c r="E12" s="5" t="n"/>
+      <c r="F12" s="5" t="n"/>
+      <c r="G12" s="5" t="n"/>
+      <c r="H12" s="5" t="n"/>
+      <c r="I12" s="5" t="n"/>
+      <c r="J12" s="5" t="n"/>
+      <c r="K12" s="5" t="n"/>
+      <c r="L12" s="5" t="n"/>
+      <c r="M12" s="5" t="n"/>
+      <c r="N12" s="5" t="n"/>
+      <c r="O12" s="5" t="n"/>
+      <c r="P12" s="5" t="n"/>
+      <c r="Q12" s="5" t="n"/>
+      <c r="R12" s="5" t="n"/>
+      <c r="S12" s="5" t="n"/>
+      <c r="T12" s="5" t="n"/>
+      <c r="U12" s="5" t="n"/>
+      <c r="V12" s="5" t="n"/>
+      <c r="W12" s="5" t="n"/>
+      <c r="X12" s="5" t="n"/>
+      <c r="Y12" s="5" t="n"/>
+      <c r="Z12" s="5" t="n"/>
+      <c r="AA12" s="5" t="n"/>
+      <c r="AB12" s="5" t="n"/>
+      <c r="AC12" s="5" t="n"/>
+      <c r="AD12" s="5" t="n"/>
+      <c r="AE12" s="5" t="n"/>
+      <c r="AF12" s="5" t="n"/>
+      <c r="AG12" s="5" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>544</v>
+      <c r="A13" s="9" t="inlineStr">
+        <is>
+          <t>0112</t>
+        </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
@@ -1039,50 +1071,54 @@
       <c r="AF13" s="3" t="n"/>
       <c r="AG13" s="3" t="n"/>
     </row>
-    <row r="14" customFormat="1" s="7">
-      <c r="A14" s="5" t="n">
-        <v>545</v>
-      </c>
-      <c r="B14" s="6" t="inlineStr">
+    <row r="14" customFormat="1" s="6">
+      <c r="A14" s="8" t="inlineStr">
+        <is>
+          <t>0113</t>
+        </is>
+      </c>
+      <c r="B14" s="5" t="inlineStr">
         <is>
           <t>M.1/13</t>
         </is>
       </c>
-      <c r="C14" s="6" t="n"/>
-      <c r="D14" s="6" t="n"/>
-      <c r="E14" s="6" t="n"/>
-      <c r="F14" s="6" t="n"/>
-      <c r="G14" s="6" t="n"/>
-      <c r="H14" s="6" t="n"/>
-      <c r="I14" s="6" t="n"/>
-      <c r="J14" s="6" t="n"/>
-      <c r="K14" s="6" t="n"/>
-      <c r="L14" s="6" t="n"/>
-      <c r="M14" s="6" t="n"/>
-      <c r="N14" s="6" t="n"/>
-      <c r="O14" s="6" t="n"/>
-      <c r="P14" s="6" t="n"/>
-      <c r="Q14" s="6" t="n"/>
-      <c r="R14" s="6" t="n"/>
-      <c r="S14" s="6" t="n"/>
-      <c r="T14" s="6" t="n"/>
-      <c r="U14" s="6" t="n"/>
-      <c r="V14" s="6" t="n"/>
-      <c r="W14" s="6" t="n"/>
-      <c r="X14" s="6" t="n"/>
-      <c r="Y14" s="6" t="n"/>
-      <c r="Z14" s="6" t="n"/>
-      <c r="AA14" s="6" t="n"/>
-      <c r="AB14" s="6" t="n"/>
-      <c r="AC14" s="6" t="n"/>
-      <c r="AD14" s="6" t="n"/>
-      <c r="AE14" s="6" t="n"/>
-      <c r="AF14" s="6" t="n"/>
-      <c r="AG14" s="6" t="n"/>
+      <c r="C14" s="5" t="n"/>
+      <c r="D14" s="5" t="n"/>
+      <c r="E14" s="5" t="n"/>
+      <c r="F14" s="5" t="n"/>
+      <c r="G14" s="5" t="n"/>
+      <c r="H14" s="5" t="n"/>
+      <c r="I14" s="5" t="n"/>
+      <c r="J14" s="5" t="n"/>
+      <c r="K14" s="5" t="n"/>
+      <c r="L14" s="5" t="n"/>
+      <c r="M14" s="5" t="n"/>
+      <c r="N14" s="5" t="n"/>
+      <c r="O14" s="5" t="n"/>
+      <c r="P14" s="5" t="n"/>
+      <c r="Q14" s="5" t="n"/>
+      <c r="R14" s="5" t="n"/>
+      <c r="S14" s="5" t="n"/>
+      <c r="T14" s="5" t="n"/>
+      <c r="U14" s="5" t="n"/>
+      <c r="V14" s="5" t="n"/>
+      <c r="W14" s="5" t="n"/>
+      <c r="X14" s="5" t="n"/>
+      <c r="Y14" s="5" t="n"/>
+      <c r="Z14" s="5" t="n"/>
+      <c r="AA14" s="5" t="n"/>
+      <c r="AB14" s="5" t="n"/>
+      <c r="AC14" s="5" t="n"/>
+      <c r="AD14" s="5" t="n"/>
+      <c r="AE14" s="5" t="n"/>
+      <c r="AF14" s="5" t="n"/>
+      <c r="AG14" s="5" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>546</v>
+      <c r="A15" s="9" t="inlineStr">
+        <is>
+          <t>0114</t>
+        </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
@@ -1121,28 +1157,6 @@
       <c r="AF15" s="3" t="n"/>
       <c r="AG15" s="3" t="n"/>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" t="n">
-        <v>2</v>
-      </c>
-      <c r="C16" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" t="n">
-        <v>2</v>
-      </c>
-      <c r="C17" t="n">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0"/>
